--- a/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E80DD2C-A36F-4376-BD85-2E29C82018EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED0FA72-AFF5-4F22-BDF3-41F62C482A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFF1C236-BB92-4204-AE8E-89B0D15F6058}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C63D9C0-BE2A-45EE-AEBC-30F3F59AD18A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -74,319 +74,343 @@
     <t>79,58%</t>
   </si>
   <si>
-    <t>69,79%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,49%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E742BB79-B653-4C0F-89CF-205F1D55E441}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D7A42B-2F88-4AC4-9054-802369E6DAA8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1095,13 +1119,13 @@
         <v>451438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>1225</v>
@@ -1110,13 +1134,13 @@
         <v>889508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1131,13 +1155,13 @@
         <v>49283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -1146,13 +1170,13 @@
         <v>66883</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>178</v>
@@ -1161,13 +1185,13 @@
         <v>116166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,7 +1247,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1235,13 +1259,13 @@
         <v>849336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1220</v>
@@ -1250,13 +1274,13 @@
         <v>864261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1991</v>
@@ -1265,13 +1289,13 @@
         <v>1713598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,13 +1310,13 @@
         <v>104572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -1301,13 +1325,13 @@
         <v>117576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
@@ -1316,13 +1340,13 @@
         <v>222148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,7 +1402,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1390,13 +1414,13 @@
         <v>590279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>819</v>
@@ -1405,13 +1429,13 @@
         <v>717239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1350</v>
@@ -1420,13 +1444,13 @@
         <v>1307519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,13 +1465,13 @@
         <v>90921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -1456,13 +1480,13 @@
         <v>102210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -1471,13 +1495,13 @@
         <v>193130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,7 +1557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,13 +1569,13 @@
         <v>797039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1226</v>
@@ -1560,13 +1584,13 @@
         <v>912081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2038</v>
@@ -1575,13 +1599,13 @@
         <v>1709119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1620,13 @@
         <v>102883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -1611,13 +1635,13 @@
         <v>142551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>315</v>
@@ -1626,13 +1650,13 @@
         <v>245434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1724,13 @@
         <v>2748490</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>4182</v>
@@ -1715,28 +1739,28 @@
         <v>3036105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>6857</v>
       </c>
       <c r="N19" s="7">
-        <v>5784595</v>
+        <v>5784596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1775,13 @@
         <v>366582</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>694</v>
@@ -1766,13 +1790,13 @@
         <v>451045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1110</v>
@@ -1781,13 +1805,13 @@
         <v>817627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1853,7 @@
         <v>7967</v>
       </c>
       <c r="N21" s="7">
-        <v>6602222</v>
+        <v>6602223</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1843,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED0FA72-AFF5-4F22-BDF3-41F62C482A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E0EB49-6256-4854-9674-10FFA7C81298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C63D9C0-BE2A-45EE-AEBC-30F3F59AD18A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E86A0A2-DDD0-49BB-8FED-24AD78538BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>89,89%</t>
@@ -188,7 +188,7 @@
     <t>13,54%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>89,04%</t>
@@ -245,7 +245,7 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,65%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D7A42B-2F88-4AC4-9054-802369E6DAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843BF9E6-958F-4DEA-98E9-8CFD88484FE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E0EB49-6256-4854-9674-10FFA7C81298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D75D1F6-97A5-4CD1-AF35-4C7F931DB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E86A0A2-DDD0-49BB-8FED-24AD78538BF2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64A3B29B-3FE7-4A1B-94C7-F8114A076788}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>79,58%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>89,89%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,31 +191,31 @@
     <t>86,53%</t>
   </si>
   <si>
-    <t>91,67%</t>
+    <t>91,57%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>8,43%</t>
   </si>
   <si>
     <t>13,47%</t>
@@ -230,19 +224,19 @@
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +245,55 @@
     <t>86,65%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +302,91 @@
     <t>88,57%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>88,51%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843BF9E6-958F-4DEA-98E9-8CFD88484FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A8014-1CBF-4ECC-AB5C-705470F1BBF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1119,13 +1095,13 @@
         <v>451438</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>1225</v>
@@ -1134,13 +1110,13 @@
         <v>889508</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1155,13 +1131,13 @@
         <v>49283</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -1170,13 +1146,13 @@
         <v>66883</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>178</v>
@@ -1185,13 +1161,13 @@
         <v>116166</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,7 +1223,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1259,13 +1235,13 @@
         <v>849336</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1220</v>
@@ -1274,13 +1250,13 @@
         <v>864261</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1991</v>
@@ -1289,13 +1265,13 @@
         <v>1713598</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,13 +1286,13 @@
         <v>104572</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -1325,13 +1301,13 @@
         <v>117576</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
@@ -1340,13 +1316,13 @@
         <v>222148</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,7 +1378,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1414,13 +1390,13 @@
         <v>590279</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>819</v>
@@ -1429,13 +1405,13 @@
         <v>717239</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1350</v>
@@ -1444,13 +1420,13 @@
         <v>1307519</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1441,13 @@
         <v>90921</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -1480,13 +1456,13 @@
         <v>102210</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -1495,13 +1471,13 @@
         <v>193130</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1533,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1545,13 @@
         <v>797039</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1226</v>
@@ -1584,13 +1560,13 @@
         <v>912081</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2038</v>
@@ -1599,13 +1575,13 @@
         <v>1709119</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1596,13 @@
         <v>102883</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -1635,13 +1611,13 @@
         <v>142551</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>315</v>
@@ -1650,13 +1626,13 @@
         <v>245434</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1700,13 @@
         <v>2748490</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>4182</v>
@@ -1739,28 +1715,28 @@
         <v>3036105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>6857</v>
       </c>
       <c r="N19" s="7">
-        <v>5784596</v>
+        <v>5784595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1751,13 @@
         <v>366582</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>694</v>
@@ -1790,13 +1766,13 @@
         <v>451045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1110</v>
@@ -1805,13 +1781,13 @@
         <v>817627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1829,7 @@
         <v>7967</v>
       </c>
       <c r="N21" s="7">
-        <v>6602223</v>
+        <v>6602222</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1843,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D75D1F6-97A5-4CD1-AF35-4C7F931DB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DD5F03-0039-4004-A803-48A49BB71C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64A3B29B-3FE7-4A1B-94C7-F8114A076788}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{65E4045B-C8F9-4AD4-BCBB-F42A4B54F6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -65,328 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A8014-1CBF-4ECC-AB5C-705470F1BBF5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73FA6BC-87B1-4EB6-BA26-CB4B7873CCCF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -919,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>84</v>
+        <v>561</v>
       </c>
       <c r="D4" s="7">
-        <v>73766</v>
+        <v>492382</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -934,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>169</v>
+        <v>917</v>
       </c>
       <c r="I4" s="7">
-        <v>91086</v>
+        <v>503602</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -949,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>253</v>
+        <v>1478</v>
       </c>
       <c r="N4" s="7">
-        <v>164852</v>
+        <v>995984</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -970,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>18923</v>
+        <v>73735</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -985,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="I5" s="7">
-        <v>21825</v>
+        <v>87275</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1000,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="N5" s="7">
-        <v>40749</v>
+        <v>161010</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1021,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>92689</v>
+        <v>566117</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1036,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>207</v>
+        <v>1067</v>
       </c>
       <c r="I6" s="7">
-        <v>112911</v>
+        <v>590877</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1051,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>312</v>
+        <v>1715</v>
       </c>
       <c r="N6" s="7">
-        <v>205601</v>
+        <v>1156994</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1074,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>477</v>
+        <v>771</v>
       </c>
       <c r="D7" s="7">
-        <v>438070</v>
+        <v>1006296</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,34 +1056,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>748</v>
+        <v>1220</v>
       </c>
       <c r="I7" s="7">
-        <v>451438</v>
+        <v>776101</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1225</v>
+        <v>1991</v>
       </c>
       <c r="N7" s="7">
-        <v>889508</v>
+        <v>1782398</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>49283</v>
+        <v>107126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="I8" s="7">
-        <v>66883</v>
+        <v>112116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="N8" s="7">
-        <v>116166</v>
+        <v>219242</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>543</v>
+        <v>880</v>
       </c>
       <c r="D9" s="7">
-        <v>487353</v>
+        <v>1113422</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1191,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>860</v>
+        <v>1398</v>
       </c>
       <c r="I9" s="7">
-        <v>518321</v>
+        <v>888217</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1206,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1403</v>
+        <v>2278</v>
       </c>
       <c r="N9" s="7">
-        <v>1005674</v>
+        <v>2001640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1223,55 +1190,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>771</v>
+        <v>531</v>
       </c>
       <c r="D10" s="7">
-        <v>849336</v>
+        <v>565732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1220</v>
+        <v>819</v>
       </c>
       <c r="I10" s="7">
-        <v>864261</v>
+        <v>759107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1991</v>
+        <v>1350</v>
       </c>
       <c r="N10" s="7">
-        <v>1713598</v>
+        <v>1324840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>104572</v>
+        <v>95683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I11" s="7">
-        <v>117576</v>
+        <v>99409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="N11" s="7">
-        <v>222148</v>
+        <v>195092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>880</v>
+        <v>632</v>
       </c>
       <c r="D12" s="7">
-        <v>953908</v>
+        <v>661415</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1346,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1398</v>
+        <v>989</v>
       </c>
       <c r="I12" s="7">
-        <v>981837</v>
+        <v>858516</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1361,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2278</v>
+        <v>1621</v>
       </c>
       <c r="N12" s="7">
-        <v>1935746</v>
+        <v>1519932</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1378,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>531</v>
+        <v>812</v>
       </c>
       <c r="D13" s="7">
-        <v>590279</v>
+        <v>764369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>819</v>
+        <v>1226</v>
       </c>
       <c r="I13" s="7">
-        <v>717239</v>
+        <v>818634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1350</v>
+        <v>2038</v>
       </c>
       <c r="N13" s="7">
-        <v>1307519</v>
+        <v>1583003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7">
-        <v>90921</v>
+        <v>101818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>102210</v>
+        <v>190812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="N14" s="7">
-        <v>193130</v>
+        <v>292629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>632</v>
+        <v>931</v>
       </c>
       <c r="D15" s="7">
-        <v>681200</v>
+        <v>866187</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1501,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>989</v>
+        <v>1422</v>
       </c>
       <c r="I15" s="7">
-        <v>819449</v>
+        <v>1009446</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1516,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1621</v>
+        <v>2353</v>
       </c>
       <c r="N15" s="7">
-        <v>1500649</v>
+        <v>1875632</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1533,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>812</v>
+        <v>2675</v>
       </c>
       <c r="D16" s="7">
-        <v>797039</v>
+        <v>2828781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>1226</v>
+        <v>4182</v>
       </c>
       <c r="I16" s="7">
-        <v>912081</v>
+        <v>2857444</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>2038</v>
+        <v>6857</v>
       </c>
       <c r="N16" s="7">
-        <v>1709119</v>
+        <v>5686225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="D17" s="7">
-        <v>102883</v>
+        <v>378361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>196</v>
+        <v>694</v>
       </c>
       <c r="I17" s="7">
-        <v>142551</v>
+        <v>489612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>315</v>
+        <v>1110</v>
       </c>
       <c r="N17" s="7">
-        <v>245434</v>
+        <v>867973</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>931</v>
+        <v>3091</v>
       </c>
       <c r="D18" s="7">
-        <v>899922</v>
+        <v>3207142</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1656,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1422</v>
+        <v>4876</v>
       </c>
       <c r="I18" s="7">
-        <v>1054632</v>
+        <v>3347056</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1671,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2353</v>
+        <v>7967</v>
       </c>
       <c r="N18" s="7">
-        <v>1954553</v>
+        <v>6554198</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1687,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2675</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2748490</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4182</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3036105</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6857</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5784595</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>416</v>
-      </c>
-      <c r="D20" s="7">
-        <v>366582</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>694</v>
-      </c>
-      <c r="I20" s="7">
-        <v>451045</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1110</v>
-      </c>
-      <c r="N20" s="7">
-        <v>817627</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3091</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3115072</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4876</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3487150</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>7967</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6602222</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
